--- a/data/raw/election/voters-age-sex-education/2023/Çanakkale.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Çanakkale.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:33:10-50757387750" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="41">
   <si>
     <t>Çanakkale</t>
   </si>
@@ -137,6 +136,12 @@
   </si>
   <si>
     <t>Yenice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -684,16 +689,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,10 +1032,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N316"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A317" sqref="A317:A318"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,24 +1051,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1155,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="5">
-        <v>1.3169999999999999</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1194,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="5">
-        <v>1.155</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="M8" s="5">
-        <v>1.038</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,7 +1287,7 @@
       <c r="L9" s="4">
         <v>2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>924</v>
       </c>
     </row>
@@ -1315,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="M10" s="5">
-        <v>1.016</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1353,7 +1367,7 @@
       <c r="L11" s="4">
         <v>8</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>887</v>
       </c>
     </row>
@@ -1395,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="5">
-        <v>1.0249999999999999</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1434,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="5">
-        <v>1.004</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1475,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="M14" s="5">
-        <v>1.103</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1514,7 +1528,7 @@
         <v>12</v>
       </c>
       <c r="M15" s="5">
-        <v>1.1020000000000001</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1555,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="M16" s="5">
-        <v>1.143</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1594,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="M17" s="5">
-        <v>1.157</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1635,7 +1649,7 @@
         <v>11</v>
       </c>
       <c r="M18" s="5">
-        <v>1.2709999999999999</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1674,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="5">
-        <v>1.2709999999999999</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1715,7 +1729,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="5">
-        <v>1.3080000000000001</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,7 +1768,7 @@
         <v>21</v>
       </c>
       <c r="M21" s="5">
-        <v>1.3720000000000001</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1795,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="5">
-        <v>1.339</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1834,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="5">
-        <v>1.371</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1875,7 +1889,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="5">
-        <v>1.327</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1914,7 +1928,7 @@
         <v>15</v>
       </c>
       <c r="M25" s="5">
-        <v>1.28</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1954,7 +1968,7 @@
       <c r="L26" s="4">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>972</v>
       </c>
     </row>
@@ -1994,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="M27" s="5">
-        <v>1.034</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2035,7 +2049,7 @@
         <v>14</v>
       </c>
       <c r="M28" s="5">
-        <v>1.21</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2074,46 +2088,46 @@
         <v>18</v>
       </c>
       <c r="M29" s="5">
-        <v>1.6279999999999999</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
         <v>349</v>
       </c>
       <c r="D30" s="5">
-        <v>1.4139999999999999</v>
+        <v>1414</v>
       </c>
       <c r="E30" s="5">
-        <v>9.3439999999999994</v>
+        <v>9344</v>
       </c>
       <c r="F30" s="5">
-        <v>2.0099999999999998</v>
+        <v>2010</v>
       </c>
       <c r="G30" s="5">
-        <v>3.44</v>
+        <v>3440</v>
       </c>
       <c r="H30" s="5">
-        <v>6.16</v>
+        <v>6160</v>
       </c>
       <c r="I30" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="J30" s="5">
+        <v>4700</v>
+      </c>
+      <c r="J30" s="6">
         <v>483</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>58</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="6">
         <v>296</v>
       </c>
       <c r="M30" s="5">
-        <v>28.254000000000001</v>
+        <v>28254</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2193,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="M32" s="5">
-        <v>1.052</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2231,7 +2245,7 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="6">
         <v>982</v>
       </c>
     </row>
@@ -2272,7 +2286,7 @@
       <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="6">
         <v>759</v>
       </c>
     </row>
@@ -2311,7 +2325,7 @@
       <c r="L35" s="4">
         <v>13</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="6">
         <v>687</v>
       </c>
     </row>
@@ -2352,7 +2366,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="6">
         <v>731</v>
       </c>
     </row>
@@ -2391,7 +2405,7 @@
       <c r="L37" s="4">
         <v>17</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="6">
         <v>739</v>
       </c>
     </row>
@@ -2432,7 +2446,7 @@
       <c r="L38" s="4">
         <v>3</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="6">
         <v>901</v>
       </c>
     </row>
@@ -2471,7 +2485,7 @@
       <c r="L39" s="4">
         <v>10</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>888</v>
       </c>
     </row>
@@ -2513,7 +2527,7 @@
         <v>4</v>
       </c>
       <c r="M40" s="5">
-        <v>1.069</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2551,7 +2565,7 @@
       <c r="L41" s="4">
         <v>8</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="6">
         <v>999</v>
       </c>
     </row>
@@ -2593,7 +2607,7 @@
         <v>6</v>
       </c>
       <c r="M42" s="5">
-        <v>1.012</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2631,7 +2645,7 @@
       <c r="L43" s="4">
         <v>10</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="6">
         <v>972</v>
       </c>
     </row>
@@ -2673,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="M44" s="5">
-        <v>1.0640000000000001</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2712,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="M45" s="5">
-        <v>1.1120000000000001</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2753,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="M46" s="5">
-        <v>1.1339999999999999</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2792,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="M47" s="5">
-        <v>1.117</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2833,7 +2847,7 @@
         <v>5</v>
       </c>
       <c r="M48" s="5">
-        <v>1.1180000000000001</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2872,7 +2886,7 @@
         <v>8</v>
       </c>
       <c r="M49" s="5">
-        <v>1.173</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2912,7 +2926,7 @@
       <c r="L50" s="4">
         <v>6</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="6">
         <v>993</v>
       </c>
     </row>
@@ -2952,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="M51" s="5">
-        <v>1.05</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2992,7 +3006,7 @@
       <c r="L52" s="4">
         <v>4</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="6">
         <v>818</v>
       </c>
     </row>
@@ -3031,7 +3045,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="6">
         <v>854</v>
       </c>
     </row>
@@ -3073,7 +3087,7 @@
         <v>3</v>
       </c>
       <c r="M54" s="5">
-        <v>1.0640000000000001</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3112,46 +3126,46 @@
         <v>8</v>
       </c>
       <c r="M55" s="5">
-        <v>1.5669999999999999</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="6">
         <v>347</v>
       </c>
       <c r="D56" s="5">
-        <v>1.25</v>
+        <v>1250</v>
       </c>
       <c r="E56" s="5">
-        <v>9.4600000000000009</v>
+        <v>9460</v>
       </c>
       <c r="F56" s="5">
-        <v>2.2869999999999999</v>
+        <v>2287</v>
       </c>
       <c r="G56" s="5">
-        <v>2.8340000000000001</v>
+        <v>2834</v>
       </c>
       <c r="H56" s="5">
-        <v>4.4969999999999999</v>
+        <v>4497</v>
       </c>
       <c r="I56" s="5">
-        <v>2.7290000000000001</v>
-      </c>
-      <c r="J56" s="5">
+        <v>2729</v>
+      </c>
+      <c r="J56" s="6">
         <v>268</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>24</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="6">
         <v>159</v>
       </c>
       <c r="M56" s="5">
-        <v>23.855</v>
+        <v>23855</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3215,8 +3229,8 @@
       <c r="G58" s="4">
         <v>791</v>
       </c>
-      <c r="H58" s="4">
-        <v>2.4300000000000002</v>
+      <c r="H58" s="9">
+        <v>2430</v>
       </c>
       <c r="I58" s="4">
         <v>488</v>
@@ -3231,7 +3245,7 @@
         <v>18</v>
       </c>
       <c r="M58" s="5">
-        <v>3.778</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3254,8 +3268,8 @@
       <c r="G59" s="4">
         <v>586</v>
       </c>
-      <c r="H59" s="4">
-        <v>2.1960000000000002</v>
+      <c r="H59" s="9">
+        <v>2196</v>
       </c>
       <c r="I59" s="4">
         <v>802</v>
@@ -3270,7 +3284,7 @@
         <v>6</v>
       </c>
       <c r="M59" s="5">
-        <v>3.649</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3295,11 +3309,11 @@
       <c r="G60" s="4">
         <v>726</v>
       </c>
-      <c r="H60" s="4">
-        <v>1.002</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.167</v>
+      <c r="H60" s="9">
+        <v>1002</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1167</v>
       </c>
       <c r="J60" s="4">
         <v>54</v>
@@ -3311,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="M60" s="5">
-        <v>3.008</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,8 +3351,8 @@
       <c r="H61" s="4">
         <v>668</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.4259999999999999</v>
+      <c r="I61" s="9">
+        <v>1426</v>
       </c>
       <c r="J61" s="4">
         <v>97</v>
@@ -3350,7 +3364,7 @@
         <v>6</v>
       </c>
       <c r="M61" s="5">
-        <v>2.766</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,8 +3392,8 @@
       <c r="H62" s="4">
         <v>922</v>
       </c>
-      <c r="I62" s="4">
-        <v>1.2430000000000001</v>
+      <c r="I62" s="9">
+        <v>1243</v>
       </c>
       <c r="J62" s="4">
         <v>96</v>
@@ -3391,7 +3405,7 @@
         <v>7</v>
       </c>
       <c r="M62" s="5">
-        <v>3.06</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3417,8 +3431,8 @@
       <c r="H63" s="4">
         <v>773</v>
       </c>
-      <c r="I63" s="4">
-        <v>1.266</v>
+      <c r="I63" s="9">
+        <v>1266</v>
       </c>
       <c r="J63" s="4">
         <v>128</v>
@@ -3430,7 +3444,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="5">
-        <v>2.988</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3455,8 +3469,8 @@
       <c r="G64" s="4">
         <v>341</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.1040000000000001</v>
+      <c r="H64" s="9">
+        <v>1104</v>
       </c>
       <c r="I64" s="4">
         <v>982</v>
@@ -3471,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="M64" s="5">
-        <v>3.2829999999999999</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3510,7 +3524,7 @@
         <v>11</v>
       </c>
       <c r="M65" s="5">
-        <v>3.0710000000000002</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3535,8 +3549,8 @@
       <c r="G66" s="4">
         <v>695</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.2410000000000001</v>
+      <c r="H66" s="9">
+        <v>1241</v>
       </c>
       <c r="I66" s="4">
         <v>742</v>
@@ -3551,7 +3565,7 @@
         <v>8</v>
       </c>
       <c r="M66" s="5">
-        <v>3.806</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3590,7 +3604,7 @@
         <v>10</v>
       </c>
       <c r="M67" s="5">
-        <v>3.4590000000000001</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3631,7 +3645,7 @@
         <v>13</v>
       </c>
       <c r="M68" s="5">
-        <v>3.3069999999999999</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3645,8 +3659,8 @@
       <c r="D69" s="4">
         <v>16</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.228</v>
+      <c r="E69" s="9">
+        <v>1228</v>
       </c>
       <c r="F69" s="4">
         <v>366</v>
@@ -3670,7 +3684,7 @@
         <v>6</v>
       </c>
       <c r="M69" s="5">
-        <v>3.1110000000000002</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3711,7 +3725,7 @@
         <v>5</v>
       </c>
       <c r="M70" s="5">
-        <v>3.0990000000000002</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3725,8 +3739,8 @@
       <c r="D71" s="4">
         <v>41</v>
       </c>
-      <c r="E71" s="4">
-        <v>1.508</v>
+      <c r="E71" s="9">
+        <v>1508</v>
       </c>
       <c r="F71" s="4">
         <v>363</v>
@@ -3750,7 +3764,7 @@
         <v>17</v>
       </c>
       <c r="M71" s="5">
-        <v>3.0339999999999998</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3766,8 +3780,8 @@
       <c r="D72" s="4">
         <v>17</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.054</v>
+      <c r="E72" s="9">
+        <v>1054</v>
       </c>
       <c r="F72" s="4">
         <v>374</v>
@@ -3791,7 +3805,7 @@
         <v>9</v>
       </c>
       <c r="M72" s="5">
-        <v>3.0409999999999999</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3805,8 +3819,8 @@
       <c r="D73" s="4">
         <v>71</v>
       </c>
-      <c r="E73" s="4">
-        <v>1.94</v>
+      <c r="E73" s="9">
+        <v>1940</v>
       </c>
       <c r="F73" s="4">
         <v>242</v>
@@ -3830,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="M73" s="5">
-        <v>3.11</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3846,8 +3860,8 @@
       <c r="D74" s="4">
         <v>24</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.534</v>
+      <c r="E74" s="9">
+        <v>1534</v>
       </c>
       <c r="F74" s="4">
         <v>257</v>
@@ -3871,7 +3885,7 @@
         <v>13</v>
       </c>
       <c r="M74" s="5">
-        <v>2.9489999999999998</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3885,8 +3899,8 @@
       <c r="D75" s="4">
         <v>95</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.286</v>
+      <c r="E75" s="9">
+        <v>2286</v>
       </c>
       <c r="F75" s="4">
         <v>122</v>
@@ -3910,7 +3924,7 @@
         <v>13</v>
       </c>
       <c r="M75" s="5">
-        <v>3.048</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3926,8 +3940,8 @@
       <c r="D76" s="4">
         <v>68</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.5069999999999999</v>
+      <c r="E76" s="9">
+        <v>1507</v>
       </c>
       <c r="F76" s="4">
         <v>108</v>
@@ -3951,7 +3965,7 @@
         <v>19</v>
       </c>
       <c r="M76" s="5">
-        <v>2.4489999999999998</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3965,8 +3979,8 @@
       <c r="D77" s="4">
         <v>186</v>
       </c>
-      <c r="E77" s="4">
-        <v>2.2010000000000001</v>
+      <c r="E77" s="9">
+        <v>2201</v>
       </c>
       <c r="F77" s="4">
         <v>44</v>
@@ -3990,7 +4004,7 @@
         <v>15</v>
       </c>
       <c r="M77" s="5">
-        <v>2.7749999999999999</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4006,8 +4020,8 @@
       <c r="D78" s="4">
         <v>109</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.4870000000000001</v>
+      <c r="E78" s="9">
+        <v>1487</v>
       </c>
       <c r="F78" s="4">
         <v>44</v>
@@ -4031,7 +4045,7 @@
         <v>9</v>
       </c>
       <c r="M78" s="5">
-        <v>2.048</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4045,8 +4059,8 @@
       <c r="D79" s="4">
         <v>278</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.806</v>
+      <c r="E79" s="9">
+        <v>1806</v>
       </c>
       <c r="F79" s="4">
         <v>5</v>
@@ -4070,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="M79" s="5">
-        <v>2.294</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4086,8 +4100,8 @@
       <c r="D80" s="4">
         <v>423</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.554</v>
+      <c r="E80" s="9">
+        <v>1554</v>
       </c>
       <c r="F80" s="4">
         <v>28</v>
@@ -4111,7 +4125,7 @@
         <v>15</v>
       </c>
       <c r="M80" s="5">
-        <v>2.3199999999999998</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4122,11 +4136,11 @@
       <c r="C81" s="4">
         <v>264</v>
       </c>
-      <c r="D81" s="4">
-        <v>1.113</v>
-      </c>
-      <c r="E81" s="4">
-        <v>1.887</v>
+      <c r="D81" s="9">
+        <v>1113</v>
+      </c>
+      <c r="E81" s="9">
+        <v>1887</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>15</v>
@@ -4150,46 +4164,46 @@
         <v>16</v>
       </c>
       <c r="M81" s="5">
-        <v>3.3530000000000002</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="6">
         <v>616</v>
       </c>
       <c r="D82" s="5">
-        <v>2.67</v>
+        <v>2670</v>
       </c>
       <c r="E82" s="5">
-        <v>23.995999999999999</v>
+        <v>23996</v>
       </c>
       <c r="F82" s="5">
-        <v>5.6029999999999998</v>
+        <v>5603</v>
       </c>
       <c r="G82" s="5">
-        <v>9.2210000000000001</v>
+        <v>9221</v>
       </c>
       <c r="H82" s="5">
-        <v>16.850999999999999</v>
+        <v>16851</v>
       </c>
       <c r="I82" s="5">
-        <v>12.37</v>
+        <v>12370</v>
       </c>
       <c r="J82" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K82" s="5">
+        <v>1100</v>
+      </c>
+      <c r="K82" s="6">
         <v>111</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="6">
         <v>268</v>
       </c>
       <c r="M82" s="5">
-        <v>72.805999999999997</v>
+        <v>72806</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4268,7 +4282,7 @@
       <c r="L84" s="4">
         <v>1</v>
       </c>
-      <c r="M84" s="5">
+      <c r="M84" s="6">
         <v>75</v>
       </c>
     </row>
@@ -4307,7 +4321,7 @@
       <c r="L85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M85" s="5">
+      <c r="M85" s="6">
         <v>63</v>
       </c>
     </row>
@@ -4348,7 +4362,7 @@
       <c r="L86" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M86" s="5">
+      <c r="M86" s="6">
         <v>114</v>
       </c>
     </row>
@@ -4387,7 +4401,7 @@
       <c r="L87" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="6">
         <v>78</v>
       </c>
     </row>
@@ -4428,7 +4442,7 @@
       <c r="L88" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M88" s="5">
+      <c r="M88" s="6">
         <v>151</v>
       </c>
     </row>
@@ -4467,7 +4481,7 @@
       <c r="L89" s="4">
         <v>2</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="6">
         <v>98</v>
       </c>
     </row>
@@ -4508,7 +4522,7 @@
       <c r="L90" s="4">
         <v>1</v>
       </c>
-      <c r="M90" s="5">
+      <c r="M90" s="6">
         <v>139</v>
       </c>
     </row>
@@ -4547,7 +4561,7 @@
       <c r="L91" s="4">
         <v>1</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="6">
         <v>99</v>
       </c>
     </row>
@@ -4588,7 +4602,7 @@
       <c r="L92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M92" s="5">
+      <c r="M92" s="6">
         <v>139</v>
       </c>
     </row>
@@ -4627,7 +4641,7 @@
       <c r="L93" s="4">
         <v>1</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="6">
         <v>109</v>
       </c>
     </row>
@@ -4668,7 +4682,7 @@
       <c r="L94" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="6">
         <v>147</v>
       </c>
     </row>
@@ -4707,7 +4721,7 @@
       <c r="L95" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="6">
         <v>108</v>
       </c>
     </row>
@@ -4748,7 +4762,7 @@
       <c r="L96" s="4">
         <v>1</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="6">
         <v>141</v>
       </c>
     </row>
@@ -4787,7 +4801,7 @@
       <c r="L97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="6">
         <v>124</v>
       </c>
     </row>
@@ -4828,7 +4842,7 @@
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="6">
         <v>132</v>
       </c>
     </row>
@@ -4867,7 +4881,7 @@
       <c r="L99" s="4">
         <v>4</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="6">
         <v>140</v>
       </c>
     </row>
@@ -4908,7 +4922,7 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>146</v>
       </c>
     </row>
@@ -4947,7 +4961,7 @@
       <c r="L101" s="4">
         <v>1</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="6">
         <v>126</v>
       </c>
     </row>
@@ -4988,7 +5002,7 @@
       <c r="L102" s="4">
         <v>3</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="6">
         <v>98</v>
       </c>
     </row>
@@ -5027,7 +5041,7 @@
       <c r="L103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="6">
         <v>110</v>
       </c>
     </row>
@@ -5068,7 +5082,7 @@
       <c r="L104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="6">
         <v>81</v>
       </c>
     </row>
@@ -5107,7 +5121,7 @@
       <c r="L105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="6">
         <v>66</v>
       </c>
     </row>
@@ -5148,7 +5162,7 @@
       <c r="L106" s="4">
         <v>1</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="6">
         <v>92</v>
       </c>
     </row>
@@ -5187,7 +5201,7 @@
       <c r="L107" s="4">
         <v>1</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="6">
         <v>115</v>
       </c>
     </row>
@@ -5195,39 +5209,39 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="6">
         <v>6</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="6">
         <v>24</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="6">
         <v>431</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="6">
         <v>111</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="6">
         <v>229</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="6">
         <v>763</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="6">
         <v>935</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="6">
         <v>143</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <v>31</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="6">
         <v>18</v>
       </c>
       <c r="M108" s="5">
-        <v>2.6909999999999998</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5291,8 +5305,8 @@
       <c r="G110" s="4">
         <v>279</v>
       </c>
-      <c r="H110" s="4">
-        <v>1.3120000000000001</v>
+      <c r="H110" s="9">
+        <v>1312</v>
       </c>
       <c r="I110" s="4">
         <v>274</v>
@@ -5307,7 +5321,7 @@
         <v>8</v>
       </c>
       <c r="M110" s="5">
-        <v>1.88</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5330,8 +5344,8 @@
       <c r="G111" s="4">
         <v>213</v>
       </c>
-      <c r="H111" s="4">
-        <v>1.2310000000000001</v>
+      <c r="H111" s="9">
+        <v>1231</v>
       </c>
       <c r="I111" s="4">
         <v>462</v>
@@ -5346,7 +5360,7 @@
         <v>3</v>
       </c>
       <c r="M111" s="5">
-        <v>1.9179999999999999</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5387,7 +5401,7 @@
         <v>3</v>
       </c>
       <c r="M112" s="5">
-        <v>1.3779999999999999</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5426,7 +5440,7 @@
         <v>4</v>
       </c>
       <c r="M113" s="5">
-        <v>1.254</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5467,7 +5481,7 @@
         <v>1</v>
       </c>
       <c r="M114" s="5">
-        <v>1.41</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5506,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="M115" s="5">
-        <v>1.3440000000000001</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5547,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="M116" s="5">
-        <v>1.702</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5586,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="M117" s="5">
-        <v>1.643</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5627,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="M118" s="5">
-        <v>2.04</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5666,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="M119" s="5">
-        <v>1.9259999999999999</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5707,7 +5721,7 @@
         <v>15</v>
       </c>
       <c r="M120" s="5">
-        <v>1.9350000000000001</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5746,7 +5760,7 @@
         <v>5</v>
       </c>
       <c r="M121" s="5">
-        <v>1.6859999999999999</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5787,7 +5801,7 @@
         <v>3</v>
       </c>
       <c r="M122" s="5">
-        <v>1.627</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5826,7 +5840,7 @@
         <v>3</v>
       </c>
       <c r="M123" s="5">
-        <v>1.667</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5867,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="M124" s="5">
-        <v>1.82</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5881,8 +5895,8 @@
       <c r="D125" s="4">
         <v>14</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.1419999999999999</v>
+      <c r="E125" s="9">
+        <v>1142</v>
       </c>
       <c r="F125" s="4">
         <v>168</v>
@@ -5906,7 +5920,7 @@
         <v>4</v>
       </c>
       <c r="M125" s="5">
-        <v>1.694</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5947,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="M126" s="5">
-        <v>1.6279999999999999</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5961,8 +5975,8 @@
       <c r="D127" s="4">
         <v>31</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.327</v>
+      <c r="E127" s="9">
+        <v>1327</v>
       </c>
       <c r="F127" s="4">
         <v>96</v>
@@ -5986,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="M127" s="5">
-        <v>1.6850000000000001</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6027,7 +6041,7 @@
         <v>3</v>
       </c>
       <c r="M128" s="5">
-        <v>1.3520000000000001</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6041,8 +6055,8 @@
       <c r="D129" s="4">
         <v>93</v>
       </c>
-      <c r="E129" s="4">
-        <v>1.1879999999999999</v>
+      <c r="E129" s="9">
+        <v>1188</v>
       </c>
       <c r="F129" s="4">
         <v>34</v>
@@ -6066,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="M129" s="5">
-        <v>1.4450000000000001</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6106,7 +6120,7 @@
       <c r="L130" s="4">
         <v>1</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="6">
         <v>943</v>
       </c>
     </row>
@@ -6146,7 +6160,7 @@
         <v>1</v>
       </c>
       <c r="M131" s="5">
-        <v>1.1639999999999999</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6187,7 +6201,7 @@
         <v>3</v>
       </c>
       <c r="M132" s="5">
-        <v>1.212</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6201,8 +6215,8 @@
       <c r="D133" s="4">
         <v>530</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.1919999999999999</v>
+      <c r="E133" s="9">
+        <v>1192</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>15</v>
@@ -6226,46 +6240,46 @@
         <v>5</v>
       </c>
       <c r="M133" s="5">
-        <v>1.9019999999999999</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="6">
         <v>265</v>
       </c>
       <c r="D134" s="5">
-        <v>1.1879999999999999</v>
+        <v>1188</v>
       </c>
       <c r="E134" s="5">
-        <v>12.339</v>
+        <v>12339</v>
       </c>
       <c r="F134" s="5">
-        <v>3.4249999999999998</v>
+        <v>3425</v>
       </c>
       <c r="G134" s="5">
-        <v>4.2489999999999997</v>
+        <v>4249</v>
       </c>
       <c r="H134" s="5">
-        <v>9.8659999999999997</v>
+        <v>9866</v>
       </c>
       <c r="I134" s="5">
-        <v>6.2709999999999999</v>
-      </c>
-      <c r="J134" s="5">
+        <v>6271</v>
+      </c>
+      <c r="J134" s="6">
         <v>518</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="6">
         <v>59</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="6">
         <v>75</v>
       </c>
       <c r="M134" s="5">
-        <v>38.255000000000003</v>
+        <v>38255</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6326,14 +6340,14 @@
       <c r="F136" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G136" s="4">
-        <v>1.248</v>
-      </c>
-      <c r="H136" s="4">
-        <v>5.3079999999999998</v>
-      </c>
-      <c r="I136" s="4">
-        <v>1.327</v>
+      <c r="G136" s="9">
+        <v>1248</v>
+      </c>
+      <c r="H136" s="9">
+        <v>5308</v>
+      </c>
+      <c r="I136" s="9">
+        <v>1327</v>
       </c>
       <c r="J136" s="4">
         <v>16</v>
@@ -6345,7 +6359,7 @@
         <v>29</v>
       </c>
       <c r="M136" s="5">
-        <v>7.9610000000000003</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6368,11 +6382,11 @@
       <c r="G137" s="4">
         <v>946</v>
       </c>
-      <c r="H137" s="4">
-        <v>5.0670000000000002</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1.82</v>
+      <c r="H137" s="9">
+        <v>5067</v>
+      </c>
+      <c r="I137" s="9">
+        <v>1820</v>
       </c>
       <c r="J137" s="4">
         <v>32</v>
@@ -6384,7 +6398,7 @@
         <v>24</v>
       </c>
       <c r="M137" s="5">
-        <v>7.96</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6409,11 +6423,11 @@
       <c r="G138" s="4">
         <v>811</v>
       </c>
-      <c r="H138" s="4">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="I138" s="4">
-        <v>3.3370000000000002</v>
+      <c r="H138" s="9">
+        <v>2136</v>
+      </c>
+      <c r="I138" s="9">
+        <v>3337</v>
       </c>
       <c r="J138" s="4">
         <v>368</v>
@@ -6425,7 +6439,7 @@
         <v>32</v>
       </c>
       <c r="M138" s="5">
-        <v>6.7709999999999999</v>
+        <v>6771</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6448,11 +6462,11 @@
       <c r="G139" s="4">
         <v>564</v>
       </c>
-      <c r="H139" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I139" s="4">
-        <v>4.1130000000000004</v>
+      <c r="H139" s="9">
+        <v>1280</v>
+      </c>
+      <c r="I139" s="9">
+        <v>4113</v>
       </c>
       <c r="J139" s="4">
         <v>513</v>
@@ -6464,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="M139" s="5">
-        <v>6.6680000000000001</v>
+        <v>6668</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6489,11 +6503,11 @@
       <c r="G140" s="4">
         <v>446</v>
       </c>
-      <c r="H140" s="4">
-        <v>1.881</v>
-      </c>
-      <c r="I140" s="4">
-        <v>3.3170000000000002</v>
+      <c r="H140" s="9">
+        <v>1881</v>
+      </c>
+      <c r="I140" s="9">
+        <v>3317</v>
       </c>
       <c r="J140" s="4">
         <v>538</v>
@@ -6505,7 +6519,7 @@
         <v>24</v>
       </c>
       <c r="M140" s="5">
-        <v>6.78</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6528,11 +6542,11 @@
       <c r="G141" s="4">
         <v>291</v>
       </c>
-      <c r="H141" s="4">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="I141" s="4">
-        <v>3.55</v>
+      <c r="H141" s="9">
+        <v>1422</v>
+      </c>
+      <c r="I141" s="9">
+        <v>3550</v>
       </c>
       <c r="J141" s="4">
         <v>719</v>
@@ -6544,7 +6558,7 @@
         <v>40</v>
       </c>
       <c r="M141" s="5">
-        <v>6.6920000000000002</v>
+        <v>6692</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6569,11 +6583,11 @@
       <c r="G142" s="4">
         <v>443</v>
       </c>
-      <c r="H142" s="4">
-        <v>2.0310000000000001</v>
-      </c>
-      <c r="I142" s="4">
-        <v>3.0049999999999999</v>
+      <c r="H142" s="9">
+        <v>2031</v>
+      </c>
+      <c r="I142" s="9">
+        <v>3005</v>
       </c>
       <c r="J142" s="4">
         <v>568</v>
@@ -6585,7 +6599,7 @@
         <v>22</v>
       </c>
       <c r="M142" s="5">
-        <v>7.0129999999999999</v>
+        <v>7013</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6608,11 +6622,11 @@
       <c r="G143" s="4">
         <v>424</v>
       </c>
-      <c r="H143" s="4">
-        <v>1.9410000000000001</v>
-      </c>
-      <c r="I143" s="4">
-        <v>3.1520000000000001</v>
+      <c r="H143" s="9">
+        <v>1941</v>
+      </c>
+      <c r="I143" s="9">
+        <v>3152</v>
       </c>
       <c r="J143" s="4">
         <v>670</v>
@@ -6624,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="M143" s="5">
-        <v>7.282</v>
+        <v>7282</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6649,11 +6663,11 @@
       <c r="G144" s="4">
         <v>741</v>
       </c>
-      <c r="H144" s="4">
-        <v>2.2690000000000001</v>
-      </c>
-      <c r="I144" s="4">
-        <v>2.7730000000000001</v>
+      <c r="H144" s="9">
+        <v>2269</v>
+      </c>
+      <c r="I144" s="9">
+        <v>2773</v>
       </c>
       <c r="J144" s="4">
         <v>583</v>
@@ -6665,7 +6679,7 @@
         <v>27</v>
       </c>
       <c r="M144" s="5">
-        <v>7.6230000000000002</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6688,11 +6702,11 @@
       <c r="G145" s="4">
         <v>770</v>
       </c>
-      <c r="H145" s="4">
-        <v>2.3479999999999999</v>
-      </c>
-      <c r="I145" s="4">
-        <v>2.887</v>
+      <c r="H145" s="9">
+        <v>2348</v>
+      </c>
+      <c r="I145" s="9">
+        <v>2887</v>
       </c>
       <c r="J145" s="4">
         <v>670</v>
@@ -6704,7 +6718,7 @@
         <v>44</v>
       </c>
       <c r="M145" s="5">
-        <v>8.1739999999999995</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6729,11 +6743,11 @@
       <c r="G146" s="4">
         <v>676</v>
       </c>
-      <c r="H146" s="4">
-        <v>1.794</v>
-      </c>
-      <c r="I146" s="4">
-        <v>2.496</v>
+      <c r="H146" s="9">
+        <v>1794</v>
+      </c>
+      <c r="I146" s="9">
+        <v>2496</v>
       </c>
       <c r="J146" s="4">
         <v>383</v>
@@ -6745,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="M146" s="5">
-        <v>6.7279999999999998</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6768,11 +6782,11 @@
       <c r="G147" s="4">
         <v>848</v>
       </c>
-      <c r="H147" s="4">
-        <v>2.024</v>
-      </c>
-      <c r="I147" s="4">
-        <v>2.1789999999999998</v>
+      <c r="H147" s="9">
+        <v>2024</v>
+      </c>
+      <c r="I147" s="9">
+        <v>2179</v>
       </c>
       <c r="J147" s="4">
         <v>356</v>
@@ -6784,7 +6798,7 @@
         <v>33</v>
       </c>
       <c r="M147" s="5">
-        <v>7.2030000000000003</v>
+        <v>7203</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6809,11 +6823,11 @@
       <c r="G148" s="4">
         <v>775</v>
       </c>
-      <c r="H148" s="4">
-        <v>1.571</v>
-      </c>
-      <c r="I148" s="4">
-        <v>1.867</v>
+      <c r="H148" s="9">
+        <v>1571</v>
+      </c>
+      <c r="I148" s="9">
+        <v>1867</v>
       </c>
       <c r="J148" s="4">
         <v>311</v>
@@ -6825,7 +6839,7 @@
         <v>33</v>
       </c>
       <c r="M148" s="5">
-        <v>6.125</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,8 +6853,8 @@
       <c r="D149" s="4">
         <v>62</v>
       </c>
-      <c r="E149" s="4">
-        <v>1.3740000000000001</v>
+      <c r="E149" s="9">
+        <v>1374</v>
       </c>
       <c r="F149" s="4">
         <v>663</v>
@@ -6848,11 +6862,11 @@
       <c r="G149" s="4">
         <v>912</v>
       </c>
-      <c r="H149" s="4">
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="I149" s="4">
-        <v>1.5169999999999999</v>
+      <c r="H149" s="9">
+        <v>1815</v>
+      </c>
+      <c r="I149" s="9">
+        <v>1517</v>
       </c>
       <c r="J149" s="4">
         <v>202</v>
@@ -6864,7 +6878,7 @@
         <v>36</v>
       </c>
       <c r="M149" s="5">
-        <v>6.7350000000000003</v>
+        <v>6735</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6889,11 +6903,11 @@
       <c r="G150" s="4">
         <v>745</v>
       </c>
-      <c r="H150" s="4">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="I150" s="4">
-        <v>1.6539999999999999</v>
+      <c r="H150" s="9">
+        <v>1523</v>
+      </c>
+      <c r="I150" s="9">
+        <v>1654</v>
       </c>
       <c r="J150" s="4">
         <v>197</v>
@@ -6905,7 +6919,7 @@
         <v>43</v>
       </c>
       <c r="M150" s="5">
-        <v>5.7</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,8 +6933,8 @@
       <c r="D151" s="4">
         <v>66</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.8140000000000001</v>
+      <c r="E151" s="9">
+        <v>1814</v>
       </c>
       <c r="F151" s="4">
         <v>498</v>
@@ -6928,11 +6942,11 @@
       <c r="G151" s="4">
         <v>705</v>
       </c>
-      <c r="H151" s="4">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="I151" s="4">
-        <v>1.1120000000000001</v>
+      <c r="H151" s="9">
+        <v>1606</v>
+      </c>
+      <c r="I151" s="9">
+        <v>1112</v>
       </c>
       <c r="J151" s="4">
         <v>126</v>
@@ -6944,7 +6958,7 @@
         <v>35</v>
       </c>
       <c r="M151" s="5">
-        <v>6.0609999999999999</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6960,8 +6974,8 @@
       <c r="D152" s="4">
         <v>34</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.1970000000000001</v>
+      <c r="E152" s="9">
+        <v>1197</v>
       </c>
       <c r="F152" s="4">
         <v>310</v>
@@ -6969,11 +6983,11 @@
       <c r="G152" s="4">
         <v>558</v>
       </c>
-      <c r="H152" s="4">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="I152" s="4">
-        <v>1.3220000000000001</v>
+      <c r="H152" s="9">
+        <v>1384</v>
+      </c>
+      <c r="I152" s="9">
+        <v>1322</v>
       </c>
       <c r="J152" s="4">
         <v>141</v>
@@ -6985,7 +6999,7 @@
         <v>56</v>
       </c>
       <c r="M152" s="5">
-        <v>5.07</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,8 +7013,8 @@
       <c r="D153" s="4">
         <v>123</v>
       </c>
-      <c r="E153" s="4">
-        <v>2.2999999999999998</v>
+      <c r="E153" s="9">
+        <v>2300</v>
       </c>
       <c r="F153" s="4">
         <v>304</v>
@@ -7008,8 +7022,8 @@
       <c r="G153" s="4">
         <v>506</v>
       </c>
-      <c r="H153" s="4">
-        <v>1.3089999999999999</v>
+      <c r="H153" s="9">
+        <v>1309</v>
       </c>
       <c r="I153" s="4">
         <v>819</v>
@@ -7024,7 +7038,7 @@
         <v>57</v>
       </c>
       <c r="M153" s="5">
-        <v>5.55</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7040,8 +7054,8 @@
       <c r="D154" s="4">
         <v>52</v>
       </c>
-      <c r="E154" s="4">
-        <v>1.4630000000000001</v>
+      <c r="E154" s="9">
+        <v>1463</v>
       </c>
       <c r="F154" s="4">
         <v>144</v>
@@ -7052,8 +7066,8 @@
       <c r="H154" s="4">
         <v>872</v>
       </c>
-      <c r="I154" s="4">
-        <v>1.169</v>
+      <c r="I154" s="9">
+        <v>1169</v>
       </c>
       <c r="J154" s="4">
         <v>92</v>
@@ -7065,7 +7079,7 @@
         <v>49</v>
       </c>
       <c r="M154" s="5">
-        <v>4.3339999999999996</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7079,8 +7093,8 @@
       <c r="D155" s="4">
         <v>175</v>
       </c>
-      <c r="E155" s="4">
-        <v>2.4</v>
+      <c r="E155" s="9">
+        <v>2400</v>
       </c>
       <c r="F155" s="4">
         <v>107</v>
@@ -7104,7 +7118,7 @@
         <v>33</v>
       </c>
       <c r="M155" s="5">
-        <v>4.6989999999999998</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7120,8 +7134,8 @@
       <c r="D156" s="4">
         <v>75</v>
       </c>
-      <c r="E156" s="4">
-        <v>1.409</v>
+      <c r="E156" s="9">
+        <v>1409</v>
       </c>
       <c r="F156" s="4">
         <v>57</v>
@@ -7145,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="M156" s="5">
-        <v>3.1560000000000001</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7159,8 +7173,8 @@
       <c r="D157" s="4">
         <v>229</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.9490000000000001</v>
+      <c r="E157" s="9">
+        <v>1949</v>
       </c>
       <c r="F157" s="4">
         <v>51</v>
@@ -7184,7 +7198,7 @@
         <v>36</v>
       </c>
       <c r="M157" s="5">
-        <v>3.4630000000000001</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7200,8 +7214,8 @@
       <c r="D158" s="4">
         <v>215</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.6160000000000001</v>
+      <c r="E158" s="9">
+        <v>1616</v>
       </c>
       <c r="F158" s="4">
         <v>25</v>
@@ -7225,7 +7239,7 @@
         <v>38</v>
       </c>
       <c r="M158" s="5">
-        <v>3.3780000000000001</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7239,8 +7253,8 @@
       <c r="D159" s="4">
         <v>624</v>
       </c>
-      <c r="E159" s="4">
-        <v>2.5840000000000001</v>
+      <c r="E159" s="9">
+        <v>2584</v>
       </c>
       <c r="F159" s="4">
         <v>13</v>
@@ -7264,46 +7278,46 @@
         <v>46</v>
       </c>
       <c r="M159" s="5">
-        <v>4.6459999999999999</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="5">
-        <v>1.0129999999999999</v>
+        <v>1013</v>
       </c>
       <c r="D160" s="5">
-        <v>2.0859999999999999</v>
+        <v>2086</v>
       </c>
       <c r="E160" s="5">
-        <v>23.105</v>
+        <v>23105</v>
       </c>
       <c r="F160" s="5">
-        <v>7.7329999999999997</v>
+        <v>7733</v>
       </c>
       <c r="G160" s="5">
-        <v>14.278</v>
+        <v>14278</v>
       </c>
       <c r="H160" s="5">
-        <v>42.210999999999999</v>
+        <v>42211</v>
       </c>
       <c r="I160" s="5">
-        <v>46.017000000000003</v>
+        <v>46017</v>
       </c>
       <c r="J160" s="5">
-        <v>6.6929999999999996</v>
+        <v>6693</v>
       </c>
       <c r="K160" s="5">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="L160" s="5">
+        <v>1783</v>
+      </c>
+      <c r="L160" s="6">
         <v>853</v>
       </c>
       <c r="M160" s="5">
-        <v>145.77199999999999</v>
+        <v>145772</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7382,7 +7396,7 @@
       <c r="L162" s="4">
         <v>1</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="6">
         <v>322</v>
       </c>
     </row>
@@ -7421,7 +7435,7 @@
       <c r="L163" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="6">
         <v>278</v>
       </c>
     </row>
@@ -7462,7 +7476,7 @@
       <c r="L164" s="4">
         <v>2</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="6">
         <v>272</v>
       </c>
     </row>
@@ -7501,7 +7515,7 @@
       <c r="L165" s="4">
         <v>1</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="6">
         <v>220</v>
       </c>
     </row>
@@ -7542,7 +7556,7 @@
       <c r="L166" s="4">
         <v>1</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="6">
         <v>264</v>
       </c>
     </row>
@@ -7581,7 +7595,7 @@
       <c r="L167" s="4">
         <v>1</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="6">
         <v>228</v>
       </c>
     </row>
@@ -7622,7 +7636,7 @@
       <c r="L168" s="4">
         <v>1</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="6">
         <v>287</v>
       </c>
     </row>
@@ -7661,7 +7675,7 @@
       <c r="L169" s="4">
         <v>2</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="6">
         <v>221</v>
       </c>
     </row>
@@ -7702,7 +7716,7 @@
       <c r="L170" s="4">
         <v>4</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="6">
         <v>324</v>
       </c>
     </row>
@@ -7741,7 +7755,7 @@
       <c r="L171" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="6">
         <v>292</v>
       </c>
     </row>
@@ -7782,7 +7796,7 @@
       <c r="L172" s="4">
         <v>8</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="6">
         <v>279</v>
       </c>
     </row>
@@ -7821,7 +7835,7 @@
       <c r="L173" s="4">
         <v>4</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="6">
         <v>270</v>
       </c>
     </row>
@@ -7862,7 +7876,7 @@
       <c r="L174" s="4">
         <v>1</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="6">
         <v>350</v>
       </c>
     </row>
@@ -7901,7 +7915,7 @@
       <c r="L175" s="4">
         <v>2</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="6">
         <v>323</v>
       </c>
     </row>
@@ -7942,7 +7956,7 @@
       <c r="L176" s="4">
         <v>7</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="6">
         <v>331</v>
       </c>
     </row>
@@ -7981,7 +7995,7 @@
       <c r="L177" s="4">
         <v>2</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="6">
         <v>325</v>
       </c>
     </row>
@@ -8022,7 +8036,7 @@
       <c r="L178" s="4">
         <v>6</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="6">
         <v>371</v>
       </c>
     </row>
@@ -8061,7 +8075,7 @@
       <c r="L179" s="4">
         <v>5</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="6">
         <v>368</v>
       </c>
     </row>
@@ -8102,7 +8116,7 @@
       <c r="L180" s="4">
         <v>5</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="6">
         <v>332</v>
       </c>
     </row>
@@ -8141,7 +8155,7 @@
       <c r="L181" s="4">
         <v>2</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="6">
         <v>353</v>
       </c>
     </row>
@@ -8182,7 +8196,7 @@
       <c r="L182" s="4">
         <v>1</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="6">
         <v>269</v>
       </c>
     </row>
@@ -8221,7 +8235,7 @@
       <c r="L183" s="4">
         <v>4</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="6">
         <v>294</v>
       </c>
     </row>
@@ -8262,7 +8276,7 @@
       <c r="L184" s="4">
         <v>6</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="6">
         <v>350</v>
       </c>
     </row>
@@ -8301,7 +8315,7 @@
       <c r="L185" s="4">
         <v>6</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="6">
         <v>464</v>
       </c>
     </row>
@@ -8309,39 +8323,39 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="6">
         <v>60</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="6">
         <v>278</v>
       </c>
       <c r="E186" s="5">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="F186" s="5">
+        <v>2193</v>
+      </c>
+      <c r="F186" s="6">
         <v>603</v>
       </c>
       <c r="G186" s="5">
-        <v>1.0309999999999999</v>
+        <v>1031</v>
       </c>
       <c r="H186" s="5">
-        <v>1.919</v>
+        <v>1919</v>
       </c>
       <c r="I186" s="5">
-        <v>1.127</v>
-      </c>
-      <c r="J186" s="5">
+        <v>1127</v>
+      </c>
+      <c r="J186" s="6">
         <v>90</v>
       </c>
-      <c r="K186" s="5">
-        <v>14</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="6">
+        <v>14</v>
+      </c>
+      <c r="L186" s="6">
         <v>72</v>
       </c>
       <c r="M186" s="5">
-        <v>7.3869999999999996</v>
+        <v>7387</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8421,7 +8435,7 @@
         <v>17</v>
       </c>
       <c r="M188" s="5">
-        <v>1.3460000000000001</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8460,7 +8474,7 @@
         <v>5</v>
       </c>
       <c r="M189" s="5">
-        <v>1.2090000000000001</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8501,7 +8515,7 @@
         <v>3</v>
       </c>
       <c r="M190" s="5">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8539,7 +8553,7 @@
       <c r="L191" s="4">
         <v>6</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="6">
         <v>901</v>
       </c>
     </row>
@@ -8580,7 +8594,7 @@
       <c r="L192" s="4">
         <v>2</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="6">
         <v>981</v>
       </c>
     </row>
@@ -8619,7 +8633,7 @@
       <c r="L193" s="4">
         <v>5</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="6">
         <v>848</v>
       </c>
     </row>
@@ -8660,7 +8674,7 @@
       <c r="L194" s="4">
         <v>4</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="6">
         <v>968</v>
       </c>
     </row>
@@ -8699,7 +8713,7 @@
       <c r="L195" s="4">
         <v>5</v>
       </c>
-      <c r="M195" s="5">
+      <c r="M195" s="6">
         <v>872</v>
       </c>
     </row>
@@ -8741,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="M196" s="5">
-        <v>1.0589999999999999</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8779,7 +8793,7 @@
       <c r="L197" s="4">
         <v>3</v>
       </c>
-      <c r="M197" s="5">
+      <c r="M197" s="6">
         <v>986</v>
       </c>
     </row>
@@ -8821,7 +8835,7 @@
         <v>3</v>
       </c>
       <c r="M198" s="5">
-        <v>1.0349999999999999</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8860,7 +8874,7 @@
         <v>7</v>
       </c>
       <c r="M199" s="5">
-        <v>1.044</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8901,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="M200" s="5">
-        <v>1.0880000000000001</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8940,7 +8954,7 @@
         <v>12</v>
       </c>
       <c r="M201" s="5">
-        <v>1.1140000000000001</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8981,7 +8995,7 @@
         <v>7</v>
       </c>
       <c r="M202" s="5">
-        <v>1.1599999999999999</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9020,7 +9034,7 @@
         <v>13</v>
       </c>
       <c r="M203" s="5">
-        <v>1.175</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9061,7 +9075,7 @@
         <v>8</v>
       </c>
       <c r="M204" s="5">
-        <v>1.0820000000000001</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9100,7 +9114,7 @@
         <v>9</v>
       </c>
       <c r="M205" s="5">
-        <v>1.1379999999999999</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9140,7 +9154,7 @@
       <c r="L206" s="4">
         <v>9</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="6">
         <v>977</v>
       </c>
     </row>
@@ -9180,7 +9194,7 @@
         <v>10</v>
       </c>
       <c r="M207" s="5">
-        <v>1.046</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9220,7 +9234,7 @@
       <c r="L208" s="4">
         <v>6</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="6">
         <v>819</v>
       </c>
     </row>
@@ -9259,7 +9273,7 @@
       <c r="L209" s="4">
         <v>10</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="6">
         <v>898</v>
       </c>
     </row>
@@ -9301,7 +9315,7 @@
         <v>12</v>
       </c>
       <c r="M210" s="5">
-        <v>1.0209999999999999</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9340,46 +9354,46 @@
         <v>8</v>
       </c>
       <c r="M211" s="5">
-        <v>1.4</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
         <v>624</v>
       </c>
       <c r="D212" s="5">
-        <v>1.125</v>
+        <v>1125</v>
       </c>
       <c r="E212" s="5">
-        <v>8.7789999999999999</v>
+        <v>8779</v>
       </c>
       <c r="F212" s="5">
-        <v>2.0430000000000001</v>
+        <v>2043</v>
       </c>
       <c r="G212" s="5">
-        <v>3.698</v>
+        <v>3698</v>
       </c>
       <c r="H212" s="5">
-        <v>5.2549999999999999</v>
+        <v>5255</v>
       </c>
       <c r="I212" s="5">
-        <v>3.2519999999999998</v>
-      </c>
-      <c r="J212" s="5">
+        <v>3252</v>
+      </c>
+      <c r="J212" s="6">
         <v>253</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="6">
         <v>27</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="6">
         <v>167</v>
       </c>
       <c r="M212" s="5">
-        <v>25.222999999999999</v>
+        <v>25223</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9443,8 +9457,8 @@
       <c r="G214" s="4">
         <v>337</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.0369999999999999</v>
+      <c r="H214" s="9">
+        <v>1037</v>
       </c>
       <c r="I214" s="4">
         <v>251</v>
@@ -9459,7 +9473,7 @@
         <v>8</v>
       </c>
       <c r="M214" s="5">
-        <v>1.675</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9498,7 +9512,7 @@
         <v>4</v>
       </c>
       <c r="M215" s="5">
-        <v>1.59</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9539,7 +9553,7 @@
         <v>6</v>
       </c>
       <c r="M216" s="5">
-        <v>1.546</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9578,7 +9592,7 @@
         <v>11</v>
       </c>
       <c r="M217" s="5">
-        <v>1.343</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9619,7 +9633,7 @@
         <v>6</v>
       </c>
       <c r="M218" s="5">
-        <v>1.466</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9658,7 +9672,7 @@
         <v>9</v>
       </c>
       <c r="M219" s="5">
-        <v>1.2969999999999999</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9699,7 +9713,7 @@
         <v>4</v>
       </c>
       <c r="M220" s="5">
-        <v>1.3640000000000001</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9738,7 +9752,7 @@
         <v>8</v>
       </c>
       <c r="M221" s="5">
-        <v>1.3029999999999999</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9779,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="M222" s="5">
-        <v>1.518</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9818,7 +9832,7 @@
         <v>7</v>
       </c>
       <c r="M223" s="5">
-        <v>1.58</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9859,7 +9873,7 @@
         <v>6</v>
       </c>
       <c r="M224" s="5">
-        <v>1.532</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9898,7 +9912,7 @@
         <v>7</v>
       </c>
       <c r="M225" s="5">
-        <v>1.5249999999999999</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9939,7 +9953,7 @@
         <v>11</v>
       </c>
       <c r="M226" s="5">
-        <v>1.5569999999999999</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9978,7 +9992,7 @@
         <v>14</v>
       </c>
       <c r="M227" s="5">
-        <v>1.524</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10019,7 +10033,7 @@
         <v>14</v>
       </c>
       <c r="M228" s="5">
-        <v>1.5940000000000001</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10058,7 +10072,7 @@
         <v>11</v>
       </c>
       <c r="M229" s="5">
-        <v>1.589</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10099,7 +10113,7 @@
         <v>15</v>
       </c>
       <c r="M230" s="5">
-        <v>1.526</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10138,7 +10152,7 @@
         <v>30</v>
       </c>
       <c r="M231" s="5">
-        <v>1.6020000000000001</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10179,7 +10193,7 @@
         <v>23</v>
       </c>
       <c r="M232" s="5">
-        <v>1.3580000000000001</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10218,7 +10232,7 @@
         <v>11</v>
       </c>
       <c r="M233" s="5">
-        <v>1.401</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10259,7 +10273,7 @@
         <v>19</v>
       </c>
       <c r="M234" s="5">
-        <v>1.0269999999999999</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10298,7 +10312,7 @@
         <v>16</v>
       </c>
       <c r="M235" s="5">
-        <v>1.1160000000000001</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10339,7 +10353,7 @@
         <v>23</v>
       </c>
       <c r="M236" s="5">
-        <v>1.109</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10378,46 +10392,46 @@
         <v>23</v>
       </c>
       <c r="M237" s="5">
-        <v>1.6919999999999999</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
         <v>432</v>
       </c>
       <c r="D238" s="5">
-        <v>1.093</v>
+        <v>1093</v>
       </c>
       <c r="E238" s="5">
-        <v>9.9469999999999992</v>
+        <v>9947</v>
       </c>
       <c r="F238" s="5">
-        <v>2.3340000000000001</v>
+        <v>2334</v>
       </c>
       <c r="G238" s="5">
-        <v>4.1550000000000002</v>
+        <v>4155</v>
       </c>
       <c r="H238" s="5">
-        <v>9.3119999999999994</v>
+        <v>9312</v>
       </c>
       <c r="I238" s="5">
-        <v>6.6909999999999998</v>
-      </c>
-      <c r="J238" s="5">
+        <v>6691</v>
+      </c>
+      <c r="J238" s="6">
         <v>524</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="6">
         <v>56</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="6">
         <v>290</v>
       </c>
       <c r="M238" s="5">
-        <v>34.834000000000003</v>
+        <v>34834</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10496,7 +10510,7 @@
       <c r="L240" s="4">
         <v>4</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="6">
         <v>470</v>
       </c>
     </row>
@@ -10535,7 +10549,7 @@
       <c r="L241" s="4">
         <v>1</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="6">
         <v>361</v>
       </c>
     </row>
@@ -10576,7 +10590,7 @@
       <c r="L242" s="4">
         <v>2</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="6">
         <v>479</v>
       </c>
     </row>
@@ -10615,7 +10629,7 @@
       <c r="L243" s="4">
         <v>4</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="6">
         <v>406</v>
       </c>
     </row>
@@ -10656,7 +10670,7 @@
       <c r="L244" s="4">
         <v>3</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="6">
         <v>413</v>
       </c>
     </row>
@@ -10695,7 +10709,7 @@
       <c r="L245" s="4">
         <v>1</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="6">
         <v>351</v>
       </c>
     </row>
@@ -10736,7 +10750,7 @@
       <c r="L246" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="6">
         <v>385</v>
       </c>
     </row>
@@ -10775,7 +10789,7 @@
       <c r="L247" s="4">
         <v>4</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="6">
         <v>323</v>
       </c>
     </row>
@@ -10816,7 +10830,7 @@
       <c r="L248" s="4">
         <v>4</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="6">
         <v>389</v>
       </c>
     </row>
@@ -10855,7 +10869,7 @@
       <c r="L249" s="4">
         <v>2</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="6">
         <v>344</v>
       </c>
     </row>
@@ -10896,7 +10910,7 @@
       <c r="L250" s="4">
         <v>3</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="6">
         <v>383</v>
       </c>
     </row>
@@ -10935,7 +10949,7 @@
       <c r="L251" s="4">
         <v>4</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="6">
         <v>293</v>
       </c>
     </row>
@@ -10976,7 +10990,7 @@
       <c r="L252" s="4">
         <v>8</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="6">
         <v>313</v>
       </c>
     </row>
@@ -11015,7 +11029,7 @@
       <c r="L253" s="4">
         <v>12</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="6">
         <v>287</v>
       </c>
     </row>
@@ -11056,7 +11070,7 @@
       <c r="L254" s="4">
         <v>11</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="6">
         <v>284</v>
       </c>
     </row>
@@ -11095,7 +11109,7 @@
       <c r="L255" s="4">
         <v>5</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="6">
         <v>262</v>
       </c>
     </row>
@@ -11136,7 +11150,7 @@
       <c r="L256" s="4">
         <v>16</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="6">
         <v>317</v>
       </c>
     </row>
@@ -11175,7 +11189,7 @@
       <c r="L257" s="4">
         <v>14</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="6">
         <v>274</v>
       </c>
     </row>
@@ -11216,7 +11230,7 @@
       <c r="L258" s="4">
         <v>9</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="6">
         <v>266</v>
       </c>
     </row>
@@ -11255,7 +11269,7 @@
       <c r="L259" s="4">
         <v>11</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="6">
         <v>258</v>
       </c>
     </row>
@@ -11296,7 +11310,7 @@
       <c r="L260" s="4">
         <v>7</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="6">
         <v>192</v>
       </c>
     </row>
@@ -11335,7 +11349,7 @@
       <c r="L261" s="4">
         <v>11</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="6">
         <v>192</v>
       </c>
     </row>
@@ -11376,7 +11390,7 @@
       <c r="L262" s="4">
         <v>16</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="6">
         <v>246</v>
       </c>
     </row>
@@ -11415,7 +11429,7 @@
       <c r="L263" s="4">
         <v>17</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="6">
         <v>276</v>
       </c>
     </row>
@@ -11423,39 +11437,39 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="6">
         <v>96</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="6">
         <v>216</v>
       </c>
       <c r="E264" s="5">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="F264" s="5">
+        <v>1233</v>
+      </c>
+      <c r="F264" s="6">
         <v>378</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="6">
         <v>888</v>
       </c>
       <c r="H264" s="5">
-        <v>2.3420000000000001</v>
+        <v>2342</v>
       </c>
       <c r="I264" s="5">
-        <v>2.1539999999999999</v>
-      </c>
-      <c r="J264" s="5">
+        <v>2154</v>
+      </c>
+      <c r="J264" s="6">
         <v>251</v>
       </c>
-      <c r="K264" s="5">
+      <c r="K264" s="6">
         <v>37</v>
       </c>
-      <c r="L264" s="5">
+      <c r="L264" s="6">
         <v>169</v>
       </c>
       <c r="M264" s="5">
-        <v>7.7640000000000002</v>
+        <v>7764</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11535,7 +11549,7 @@
         <v>7</v>
       </c>
       <c r="M266" s="5">
-        <v>1.071</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11574,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="M267" s="5">
-        <v>1.135</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11614,7 +11628,7 @@
       <c r="L268" s="4">
         <v>1</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="6">
         <v>892</v>
       </c>
     </row>
@@ -11653,7 +11667,7 @@
       <c r="L269" s="4">
         <v>4</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="6">
         <v>858</v>
       </c>
     </row>
@@ -11694,7 +11708,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="6">
         <v>898</v>
       </c>
     </row>
@@ -11733,7 +11747,7 @@
       <c r="L271" s="4">
         <v>3</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="6">
         <v>839</v>
       </c>
     </row>
@@ -11774,7 +11788,7 @@
       <c r="L272" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="6">
         <v>933</v>
       </c>
     </row>
@@ -11813,7 +11827,7 @@
       <c r="L273" s="4">
         <v>4</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="6">
         <v>868</v>
       </c>
     </row>
@@ -11855,7 +11869,7 @@
         <v>3</v>
       </c>
       <c r="M274" s="5">
-        <v>1.0089999999999999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11893,7 +11907,7 @@
       <c r="L275" s="4">
         <v>6</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="6">
         <v>992</v>
       </c>
     </row>
@@ -11935,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="M276" s="5">
-        <v>1.004</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11973,7 +11987,7 @@
       <c r="L277" s="4">
         <v>9</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="6">
         <v>928</v>
       </c>
     </row>
@@ -12014,7 +12028,7 @@
       <c r="L278" s="4">
         <v>6</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="6">
         <v>997</v>
       </c>
     </row>
@@ -12054,7 +12068,7 @@
         <v>9</v>
       </c>
       <c r="M279" s="5">
-        <v>1.0569999999999999</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12095,7 +12109,7 @@
         <v>9</v>
       </c>
       <c r="M280" s="5">
-        <v>1.0089999999999999</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12134,7 +12148,7 @@
         <v>7</v>
       </c>
       <c r="M281" s="5">
-        <v>1.0980000000000001</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12175,7 +12189,7 @@
         <v>10</v>
       </c>
       <c r="M282" s="5">
-        <v>1.0529999999999999</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12214,7 +12228,7 @@
         <v>5</v>
       </c>
       <c r="M283" s="5">
-        <v>1.087</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12254,7 +12268,7 @@
       <c r="L284" s="4">
         <v>9</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="6">
         <v>938</v>
       </c>
     </row>
@@ -12294,7 +12308,7 @@
         <v>4</v>
       </c>
       <c r="M285" s="5">
-        <v>1.056</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12334,7 +12348,7 @@
       <c r="L286" s="4">
         <v>7</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="6">
         <v>779</v>
       </c>
     </row>
@@ -12373,7 +12387,7 @@
       <c r="L287" s="4">
         <v>11</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="6">
         <v>843</v>
       </c>
     </row>
@@ -12414,7 +12428,7 @@
       <c r="L288" s="4">
         <v>7</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="6">
         <v>964</v>
       </c>
     </row>
@@ -12454,46 +12468,46 @@
         <v>11</v>
       </c>
       <c r="M289" s="5">
-        <v>1.33</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="6">
         <v>170</v>
       </c>
       <c r="D290" s="5">
-        <v>1.0089999999999999</v>
+        <v>1009</v>
       </c>
       <c r="E290" s="5">
-        <v>8.1059999999999999</v>
+        <v>8106</v>
       </c>
       <c r="F290" s="5">
-        <v>1.8460000000000001</v>
+        <v>1846</v>
       </c>
       <c r="G290" s="5">
-        <v>3.0510000000000002</v>
+        <v>3051</v>
       </c>
       <c r="H290" s="5">
-        <v>5.5369999999999999</v>
+        <v>5537</v>
       </c>
       <c r="I290" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="J290" s="5">
+        <v>3450</v>
+      </c>
+      <c r="J290" s="6">
         <v>301</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="6">
         <v>28</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="6">
         <v>140</v>
       </c>
       <c r="M290" s="5">
-        <v>23.638000000000002</v>
+        <v>23638</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12573,7 +12587,7 @@
         <v>10</v>
       </c>
       <c r="M292" s="5">
-        <v>1.2310000000000001</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12612,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="M293" s="5">
-        <v>1.083</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12652,7 +12666,7 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="6">
         <v>839</v>
       </c>
     </row>
@@ -12691,7 +12705,7 @@
       <c r="L295" s="4">
         <v>3</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="6">
         <v>636</v>
       </c>
     </row>
@@ -12732,7 +12746,7 @@
       <c r="L296" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="6">
         <v>680</v>
       </c>
     </row>
@@ -12771,7 +12785,7 @@
       <c r="L297" s="4">
         <v>2</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="6">
         <v>644</v>
       </c>
     </row>
@@ -12812,7 +12826,7 @@
       <c r="L298" s="4">
         <v>1</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="6">
         <v>867</v>
       </c>
     </row>
@@ -12851,7 +12865,7 @@
       <c r="L299" s="4">
         <v>3</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="6">
         <v>806</v>
       </c>
     </row>
@@ -12893,7 +12907,7 @@
         <v>15</v>
       </c>
       <c r="M300" s="5">
-        <v>1.012</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12931,7 +12945,7 @@
       <c r="L301" s="4">
         <v>5</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="6">
         <v>959</v>
       </c>
     </row>
@@ -12973,7 +12987,7 @@
         <v>1</v>
       </c>
       <c r="M302" s="5">
-        <v>1.046</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13011,7 +13025,7 @@
       <c r="L303" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="6">
         <v>942</v>
       </c>
     </row>
@@ -13053,7 +13067,7 @@
         <v>4</v>
       </c>
       <c r="M304" s="5">
-        <v>1.151</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13092,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="M305" s="5">
-        <v>1.141</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13133,7 +13147,7 @@
         <v>2</v>
       </c>
       <c r="M306" s="5">
-        <v>1.2829999999999999</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13172,7 +13186,7 @@
         <v>3</v>
       </c>
       <c r="M307" s="5">
-        <v>1.2589999999999999</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13213,7 +13227,7 @@
         <v>3</v>
       </c>
       <c r="M308" s="5">
-        <v>1.244</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13227,8 +13241,8 @@
       <c r="D309" s="4">
         <v>94</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.008</v>
+      <c r="E309" s="9">
+        <v>1008</v>
       </c>
       <c r="F309" s="4">
         <v>52</v>
@@ -13252,7 +13266,7 @@
         <v>4</v>
       </c>
       <c r="M309" s="5">
-        <v>1.3129999999999999</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13293,7 +13307,7 @@
         <v>3</v>
       </c>
       <c r="M310" s="5">
-        <v>1.147</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13307,8 +13321,8 @@
       <c r="D311" s="4">
         <v>166</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E311" s="9">
+        <v>1007</v>
       </c>
       <c r="F311" s="4">
         <v>22</v>
@@ -13332,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="M311" s="5">
-        <v>1.2909999999999999</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13372,7 +13386,7 @@
       <c r="L312" s="4">
         <v>1</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="6">
         <v>904</v>
       </c>
     </row>
@@ -13412,7 +13426,7 @@
         <v>2</v>
       </c>
       <c r="M313" s="5">
-        <v>1.073</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13453,7 +13467,7 @@
         <v>3</v>
       </c>
       <c r="M314" s="5">
-        <v>1.1719999999999999</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13467,8 +13481,8 @@
       <c r="D315" s="4">
         <v>549</v>
       </c>
-      <c r="E315" s="4">
-        <v>1.0760000000000001</v>
+      <c r="E315" s="9">
+        <v>1076</v>
       </c>
       <c r="F315" s="4">
         <v>3</v>
@@ -13492,50 +13506,65 @@
         <v>2</v>
       </c>
       <c r="M315" s="5">
-        <v>1.8109999999999999</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="6">
         <v>289</v>
       </c>
       <c r="D316" s="5">
-        <v>1.5680000000000001</v>
+        <v>1568</v>
       </c>
       <c r="E316" s="5">
-        <v>11.433999999999999</v>
+        <v>11434</v>
       </c>
       <c r="F316" s="5">
-        <v>2.0819999999999999</v>
+        <v>2082</v>
       </c>
       <c r="G316" s="5">
-        <v>2.8210000000000002</v>
+        <v>2821</v>
       </c>
       <c r="H316" s="5">
-        <v>4.3529999999999998</v>
+        <v>4353</v>
       </c>
       <c r="I316" s="5">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="J316" s="5">
+        <v>2666</v>
+      </c>
+      <c r="J316" s="6">
         <v>239</v>
       </c>
-      <c r="K316" s="5">
+      <c r="K316" s="6">
         <v>24</v>
       </c>
-      <c r="L316" s="5">
+      <c r="L316" s="6">
         <v>58</v>
       </c>
       <c r="M316" s="5">
-        <v>25.533999999999999</v>
+        <v>25534</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -13544,11 +13573,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
